--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/query/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A55F46-AEAC-6540-8F2F-AC31AEB9CF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0A7E0-3733-1947-B978-2E590B9EACB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="5100" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
+    <workbookView xWindow="8560" yWindow="5100" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Schema</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>CNTR_MAIN</t>
   </si>
   <si>
-    <t>REVISIONS</t>
-  </si>
-  <si>
     <t>DOCUMENTS</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>DORIGINALNAME</t>
   </si>
   <si>
-    <t>DID</t>
-  </si>
-  <si>
     <t>Stellent</t>
   </si>
   <si>
@@ -139,6 +130,18 @@
   </si>
   <si>
     <t>Join</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Document Id</t>
+  </si>
+  <si>
+    <t>Document Name</t>
   </si>
 </sst>
 </file>
@@ -516,55 +519,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3346338-AE4A-403D-BD46-CCCB3EE531AE}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -575,66 +593,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF221D-8EEA-48DB-94C0-6234FC64BBF8}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J6" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,9 +676,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2732F657-5D10-4B06-BDD5-FA820CF75311}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -660,50 +692,36 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -724,42 +742,42 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/query/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A55F46-AEAC-6540-8F2F-AC31AEB9CF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F4B7AE-CE17-5840-AD5C-BC0F8FCAC2C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="5100" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Schema</t>
   </si>
@@ -105,9 +105,6 @@
     <t>CNTR_MAIN</t>
   </si>
   <si>
-    <t>REVISIONS</t>
-  </si>
-  <si>
     <t>DOCUMENTS</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>DORIGINALNAME</t>
   </si>
   <si>
-    <t>DID</t>
-  </si>
-  <si>
     <t>Stellent</t>
   </si>
   <si>
@@ -139,6 +133,9 @@
   </si>
   <si>
     <t>Join</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,10 +558,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +575,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,15 +604,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2732F657-5D10-4B06-BDD5-FA820CF75311}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,30 +680,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,15 +737,15 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F4B7AE-CE17-5840-AD5C-BC0F8FCAC2C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE14C9-09B8-3345-AA96-2A8862DA545A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="5100" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
+    <workbookView xWindow="8560" yWindow="5100" windowWidth="19420" windowHeight="10420" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3346338-AE4A-403D-BD46-CCCB3EE531AE}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -562,6 +562,9 @@
       </c>
       <c r="C2" t="s">
         <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -609,9 +612,6 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2732F657-5D10-4B06-BDD5-FA820CF75311}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0A7E0-3733-1947-B978-2E590B9EACB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDCD5C-628B-DD43-AFAE-3505898A87BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="5100" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
+    <workbookView xWindow="4640" yWindow="2940" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF221D-8EEA-48DB-94C0-6234FC64BBF8}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,11 +734,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC7AEC6-77F0-BE47-A65E-946AE35DD4BC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushivardhanreddy/Development/Python/SearchBuilder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDCD5C-628B-DD43-AFAE-3505898A87BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8D70F-1FCA-7748-988C-4D87D7CC9BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="2940" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
+    <workbookView xWindow="4640" yWindow="2940" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{ABFE6BB8-1EE9-44E1-BC7D-6D1EB5963869}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Schema</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Join</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>Document Name</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -574,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -582,7 +585,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AF221D-8EEA-48DB-94C0-6234FC64BBF8}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -635,7 +638,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -643,7 +649,21 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -721,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC7AEC6-77F0-BE47-A65E-946AE35DD4BC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
